--- a/biology/Zoologie/Gerbillurus_vallinus/Gerbillurus_vallinus.xlsx
+++ b/biology/Zoologie/Gerbillurus_vallinus/Gerbillurus_vallinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillurus vallinus ou Gerbillurus (Gerbillurus) vallinus est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés que l'on rencontre dans l'ouest de l'Afrique du Sud et dans le sud ouest de la Namibie.
 </t>
